--- a/Musa Thesis/STRAW BEERY BUGDET  111.xlsx
+++ b/Musa Thesis/STRAW BEERY BUGDET  111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8135da4974f454ba/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Choice-paper/NM Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8311" documentId="8_{46EBA254-EADB-45E7-A299-52278BA7F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C5B4E8-C68C-446D-8DA2-337BF5A767B0}"/>
+  <xr:revisionPtr revIDLastSave="8312" documentId="8_{46EBA254-EADB-45E7-A299-52278BA7F6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859B84F4-1F76-4832-B09E-F1B0DB56D655}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15120" activeTab="3" xr2:uid="{6CCDAF75-EEA0-43E5-9BCA-AAA02E992321}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{6CCDAF75-EEA0-43E5-9BCA-AAA02E992321}"/>
   </bookViews>
   <sheets>
     <sheet name="tomato" sheetId="5" r:id="rId1"/>
@@ -1783,6 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1813,18 +1814,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,6 +1822,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1846,7 +1841,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2822,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C6AEE-4982-45E0-ADB2-4155F6CDA064}">
   <dimension ref="A2:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:AE34"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2914,32 +2914,32 @@
         <v>102</v>
       </c>
       <c r="H10" s="65"/>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1">
       <c r="A11" s="80" t="s">
@@ -2987,11 +2987,11 @@
         <v>27200</v>
       </c>
       <c r="G12" s="78"/>
-      <c r="I12" s="163" t="s">
+      <c r="I12" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
       <c r="L12" s="4">
         <v>40</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>194074.81063999998</v>
       </c>
       <c r="T17" s="134">
-        <f t="shared" ref="T17:T34" si="9">T77-M51</f>
+        <f t="shared" ref="T17:T33" si="9">T77-M51</f>
         <v>174490.81063999998</v>
       </c>
       <c r="U17" s="134">
@@ -5630,11 +5630,11 @@
         <v>2720</v>
       </c>
       <c r="G45" s="70"/>
-      <c r="N45" s="156" t="s">
+      <c r="N45" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="O45" s="156"/>
-      <c r="P45" s="156"/>
+      <c r="O45" s="157"/>
+      <c r="P45" s="157"/>
     </row>
     <row r="46" spans="1:32">
       <c r="B46" t="s">
@@ -5660,24 +5660,24 @@
       <c r="D47" s="77"/>
       <c r="E47" s="76"/>
       <c r="F47" s="74"/>
-      <c r="L47" s="162" t="s">
+      <c r="L47" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="M47" s="162"/>
+      <c r="M47" s="163"/>
       <c r="O47" s="118" t="s">
         <v>122</v>
       </c>
       <c r="P47" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="Q47" s="156" t="s">
+      <c r="Q47" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="R47" s="156"/>
-      <c r="S47" s="156" t="s">
+      <c r="R47" s="157"/>
+      <c r="S47" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="T47" s="156"/>
+      <c r="T47" s="157"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1">
       <c r="A48" s="80" t="s">
@@ -6667,32 +6667,32 @@
       <c r="E70" s="69"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
-      <c r="I70" s="156" t="s">
+      <c r="I70" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="J70" s="156"/>
-      <c r="K70" s="156"/>
-      <c r="L70" s="156"/>
-      <c r="M70" s="156"/>
-      <c r="N70" s="156"/>
-      <c r="O70" s="156"/>
-      <c r="P70" s="156"/>
-      <c r="Q70" s="156"/>
-      <c r="R70" s="156"/>
-      <c r="S70" s="156"/>
-      <c r="T70" s="156"/>
-      <c r="U70" s="156"/>
-      <c r="V70" s="156"/>
-      <c r="W70" s="156"/>
-      <c r="X70" s="156"/>
-      <c r="Y70" s="156"/>
-      <c r="Z70" s="156"/>
-      <c r="AA70" s="156"/>
-      <c r="AB70" s="156"/>
-      <c r="AC70" s="156"/>
-      <c r="AD70" s="156"/>
-      <c r="AE70" s="156"/>
-      <c r="AF70" s="156"/>
+      <c r="J70" s="157"/>
+      <c r="K70" s="157"/>
+      <c r="L70" s="157"/>
+      <c r="M70" s="157"/>
+      <c r="N70" s="157"/>
+      <c r="O70" s="157"/>
+      <c r="P70" s="157"/>
+      <c r="Q70" s="157"/>
+      <c r="R70" s="157"/>
+      <c r="S70" s="157"/>
+      <c r="T70" s="157"/>
+      <c r="U70" s="157"/>
+      <c r="V70" s="157"/>
+      <c r="W70" s="157"/>
+      <c r="X70" s="157"/>
+      <c r="Y70" s="157"/>
+      <c r="Z70" s="157"/>
+      <c r="AA70" s="157"/>
+      <c r="AB70" s="157"/>
+      <c r="AC70" s="157"/>
+      <c r="AD70" s="157"/>
+      <c r="AE70" s="157"/>
+      <c r="AF70" s="157"/>
     </row>
     <row r="71" spans="1:32" ht="15.75" thickBot="1">
       <c r="A71" t="s">
@@ -6718,11 +6718,11 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1">
-      <c r="I72" s="163" t="s">
+      <c r="I72" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="J72" s="164"/>
-      <c r="K72" s="164"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="165"/>
       <c r="L72" s="4">
         <v>40</v>
       </c>
@@ -7052,13 +7052,13 @@
       <c r="B77" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="157" t="s">
+      <c r="C77" s="158" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="159"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="160"/>
       <c r="I77" s="126">
         <v>1.8</v>
       </c>
@@ -8684,16 +8684,16 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="160" t="s">
+      <c r="A92" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="B92" s="161"/>
-      <c r="C92" s="161"/>
-      <c r="D92" s="161"/>
-      <c r="E92" s="161"/>
-      <c r="F92" s="161"/>
-      <c r="G92" s="161"/>
-      <c r="H92" s="161"/>
+      <c r="B92" s="162"/>
+      <c r="C92" s="162"/>
+      <c r="D92" s="162"/>
+      <c r="E92" s="162"/>
+      <c r="F92" s="162"/>
+      <c r="G92" s="162"/>
+      <c r="H92" s="162"/>
       <c r="I92" s="126">
         <v>0.3</v>
       </c>
@@ -8790,14 +8790,14 @@
       </c>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="161"/>
-      <c r="B93" s="161"/>
-      <c r="C93" s="161"/>
-      <c r="D93" s="161"/>
-      <c r="E93" s="161"/>
-      <c r="F93" s="161"/>
-      <c r="G93" s="161"/>
-      <c r="H93" s="161"/>
+      <c r="A93" s="162"/>
+      <c r="B93" s="162"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="162"/>
       <c r="I93" s="126">
         <v>0.2</v>
       </c>
@@ -9016,9 +9016,9 @@
       <c r="AF99" s="118"/>
     </row>
     <row r="101" spans="9:32">
-      <c r="I101" s="155"/>
-      <c r="J101" s="155"/>
-      <c r="K101" s="155"/>
+      <c r="I101" s="156"/>
+      <c r="J101" s="156"/>
+      <c r="K101" s="156"/>
     </row>
     <row r="103" spans="9:32">
       <c r="I103" s="139"/>
@@ -9545,8 +9545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4460698-DD33-4F16-A97B-44429A10EB0C}">
   <dimension ref="A2:AM120"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9568,36 +9568,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
     </row>
     <row r="3" spans="1:39" ht="15.75" thickBot="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="G3" s="171" t="s">
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="G3" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
     </row>
     <row r="4" spans="1:39" ht="16.5" thickBot="1">
       <c r="A4" s="17" t="s">
@@ -9616,22 +9616,22 @@
         <v>33</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="173" t="s">
+      <c r="G4" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="175"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="174"/>
     </row>
     <row r="5" spans="1:39" ht="16.5" thickBot="1">
       <c r="A5" s="31" t="s">
@@ -9773,10 +9773,10 @@
       <c r="W7" s="136">
         <v>7238.88</v>
       </c>
-      <c r="AB7" s="162" t="s">
+      <c r="AB7" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" s="162"/>
+      <c r="AC7" s="163"/>
     </row>
     <row r="8" spans="1:39" ht="18.75">
       <c r="A8" s="25" t="s">
@@ -10646,22 +10646,22 @@
         <v>996.44999999999993</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="172" t="s">
+      <c r="G18" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
       <c r="AB18" s="114">
         <v>1.1000000000000001</v>
       </c>
@@ -11433,13 +11433,13 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="168"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="170"/>
       <c r="G30" s="15">
         <v>140</v>
       </c>
@@ -11550,10 +11550,10 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="170"/>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="6" t="s">
@@ -11656,12 +11656,12 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="18.75">
-      <c r="Q38" s="165" t="s">
+      <c r="Q38" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="156"/>
-      <c r="S38" s="156"/>
-      <c r="T38" s="156"/>
+      <c r="R38" s="157"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="157"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" thickBot="1">
       <c r="T39">
@@ -11669,11 +11669,11 @@
       </c>
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1">
-      <c r="G40" s="163" t="s">
+      <c r="G40" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="H40" s="164"/>
-      <c r="I40" s="164"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
       <c r="J40" s="138">
         <f t="shared" ref="J40:AC40" si="3">J66</f>
         <v>9.2799999999999994</v>
@@ -13652,13 +13652,13 @@
       </c>
     </row>
     <row r="65" spans="7:29">
-      <c r="O65" s="155" t="s">
+      <c r="O65" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="P65" s="156"/>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="156"/>
-      <c r="S65" s="156"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+      <c r="S65" s="157"/>
       <c r="T65" s="74"/>
       <c r="U65" s="74"/>
       <c r="W65" s="74"/>
@@ -13816,11 +13816,11 @@
       </c>
     </row>
     <row r="68" spans="7:29" ht="15.75" thickBot="1">
-      <c r="G68" s="163" t="s">
+      <c r="G68" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="164"/>
-      <c r="I68" s="164"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
       <c r="J68" s="138">
         <f t="shared" ref="J68:S68" si="25">J40</f>
         <v>9.2799999999999994</v>
@@ -15832,9 +15832,9 @@
       <c r="AD95" s="118"/>
     </row>
     <row r="96" spans="5:30">
-      <c r="G96" s="155"/>
-      <c r="H96" s="155"/>
-      <c r="I96" s="155"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="156"/>
+      <c r="I96" s="156"/>
     </row>
     <row r="97" spans="7:29">
       <c r="G97" s="118"/>
@@ -15844,9 +15844,9 @@
       <c r="K97" s="118"/>
     </row>
     <row r="98" spans="7:29">
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="156"/>
+      <c r="I98" s="156"/>
     </row>
     <row r="100" spans="7:29">
       <c r="G100" s="139"/>
@@ -16316,6 +16316,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G40:I40"/>
     <mergeCell ref="G96:I96"/>
     <mergeCell ref="G98:I98"/>
     <mergeCell ref="A2:E3"/>
@@ -16323,12 +16329,6 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="G18:T18"/>
     <mergeCell ref="G4:T4"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16341,7 +16341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A11A10-FD40-415F-95DA-BCC43C7BF28E}">
   <dimension ref="A1:X246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
@@ -17733,29 +17733,29 @@
       </c>
     </row>
     <row r="23" spans="4:24">
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
     </row>
     <row r="25" spans="4:24">
       <c r="D25" s="119">
@@ -17763,7 +17763,7 @@
         <v>435445.19918499998</v>
       </c>
       <c r="E25" s="119">
-        <f t="shared" ref="E25:X38" si="0">$B$2+E2</f>
+        <f t="shared" ref="E25:W38" si="0">$B$2+E2</f>
         <v>413685.19918499998</v>
       </c>
       <c r="F25" s="119">
@@ -18882,7 +18882,7 @@
         <v>112701.19918499998</v>
       </c>
       <c r="O38" s="119">
-        <f t="shared" ref="E38:X44" si="2">$B$2+O15</f>
+        <f t="shared" ref="E38:W44" si="2">$B$2+O15</f>
         <v>105085.19918499998</v>
       </c>
       <c r="P38" s="119">
@@ -19418,28 +19418,28 @@
       <c r="X44" s="119"/>
     </row>
     <row r="46" spans="4:24">
-      <c r="D46" s="156" t="s">
+      <c r="D46" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="156"/>
-      <c r="T46" s="156"/>
-      <c r="U46" s="156"/>
-      <c r="V46" s="156"/>
-      <c r="W46" s="156"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
+      <c r="O46" s="157"/>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="157"/>
+      <c r="U46" s="157"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="157"/>
     </row>
     <row r="47" spans="4:24">
       <c r="D47" s="119">
@@ -21144,28 +21144,28 @@
       </c>
     </row>
     <row r="68" spans="3:23">
-      <c r="D68" s="156" t="s">
+      <c r="D68" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="156"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="156"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="156"/>
-      <c r="O68" s="156"/>
-      <c r="P68" s="156"/>
-      <c r="Q68" s="156"/>
-      <c r="R68" s="156"/>
-      <c r="S68" s="156"/>
-      <c r="T68" s="156"/>
-      <c r="U68" s="156"/>
-      <c r="V68" s="156"/>
-      <c r="W68" s="156"/>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="157"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="157"/>
+      <c r="L68" s="157"/>
+      <c r="M68" s="157"/>
+      <c r="N68" s="157"/>
+      <c r="O68" s="157"/>
+      <c r="P68" s="157"/>
+      <c r="Q68" s="157"/>
+      <c r="R68" s="157"/>
+      <c r="S68" s="157"/>
+      <c r="T68" s="157"/>
+      <c r="U68" s="157"/>
+      <c r="V68" s="157"/>
+      <c r="W68" s="157"/>
     </row>
     <row r="69" spans="3:23">
       <c r="C69">
@@ -22126,7 +22126,7 @@
         <f t="shared" si="24"/>
         <v>174359.92147600002</v>
       </c>
-      <c r="I80" s="176">
+      <c r="I80" s="155">
         <f t="shared" si="24"/>
         <v>164567.92147600002</v>
       </c>
@@ -22868,28 +22868,28 @@
       </c>
     </row>
     <row r="90" spans="3:23">
-      <c r="D90" s="156" t="s">
+      <c r="D90" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
-      <c r="H90" s="156"/>
-      <c r="I90" s="156"/>
-      <c r="J90" s="156"/>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="156"/>
-      <c r="N90" s="156"/>
-      <c r="O90" s="156"/>
-      <c r="P90" s="156"/>
-      <c r="Q90" s="156"/>
-      <c r="R90" s="156"/>
-      <c r="S90" s="156"/>
-      <c r="T90" s="156"/>
-      <c r="U90" s="156"/>
-      <c r="V90" s="156"/>
-      <c r="W90" s="156"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="157"/>
+      <c r="H90" s="157"/>
+      <c r="I90" s="157"/>
+      <c r="J90" s="157"/>
+      <c r="K90" s="157"/>
+      <c r="L90" s="157"/>
+      <c r="M90" s="157"/>
+      <c r="N90" s="157"/>
+      <c r="O90" s="157"/>
+      <c r="P90" s="157"/>
+      <c r="Q90" s="157"/>
+      <c r="R90" s="157"/>
+      <c r="S90" s="157"/>
+      <c r="T90" s="157"/>
+      <c r="U90" s="157"/>
+      <c r="V90" s="157"/>
+      <c r="W90" s="157"/>
     </row>
     <row r="91" spans="3:23">
       <c r="D91">
@@ -24614,28 +24614,28 @@
       </c>
     </row>
     <row r="114" spans="4:23">
-      <c r="D114" s="156" t="s">
+      <c r="D114" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="E114" s="156"/>
-      <c r="F114" s="156"/>
-      <c r="G114" s="156"/>
-      <c r="H114" s="156"/>
-      <c r="I114" s="156"/>
-      <c r="J114" s="156"/>
-      <c r="K114" s="156"/>
-      <c r="L114" s="156"/>
-      <c r="M114" s="156"/>
-      <c r="N114" s="156"/>
-      <c r="O114" s="156"/>
-      <c r="P114" s="156"/>
-      <c r="Q114" s="156"/>
-      <c r="R114" s="156"/>
-      <c r="S114" s="156"/>
-      <c r="T114" s="156"/>
-      <c r="U114" s="156"/>
-      <c r="V114" s="156"/>
-      <c r="W114" s="156"/>
+      <c r="E114" s="157"/>
+      <c r="F114" s="157"/>
+      <c r="G114" s="157"/>
+      <c r="H114" s="157"/>
+      <c r="I114" s="157"/>
+      <c r="J114" s="157"/>
+      <c r="K114" s="157"/>
+      <c r="L114" s="157"/>
+      <c r="M114" s="157"/>
+      <c r="N114" s="157"/>
+      <c r="O114" s="157"/>
+      <c r="P114" s="157"/>
+      <c r="Q114" s="157"/>
+      <c r="R114" s="157"/>
+      <c r="S114" s="157"/>
+      <c r="T114" s="157"/>
+      <c r="U114" s="157"/>
+      <c r="V114" s="157"/>
+      <c r="W114" s="157"/>
     </row>
     <row r="115" spans="4:23">
       <c r="D115">
@@ -26360,28 +26360,28 @@
       </c>
     </row>
     <row r="138" spans="4:23">
-      <c r="D138" s="156" t="s">
+      <c r="D138" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="E138" s="156"/>
-      <c r="F138" s="156"/>
-      <c r="G138" s="156"/>
-      <c r="H138" s="156"/>
-      <c r="I138" s="156"/>
-      <c r="J138" s="156"/>
-      <c r="K138" s="156"/>
-      <c r="L138" s="156"/>
-      <c r="M138" s="156"/>
-      <c r="N138" s="156"/>
-      <c r="O138" s="156"/>
-      <c r="P138" s="156"/>
-      <c r="Q138" s="156"/>
-      <c r="R138" s="156"/>
-      <c r="S138" s="156"/>
-      <c r="T138" s="156"/>
-      <c r="U138" s="156"/>
-      <c r="V138" s="156"/>
-      <c r="W138" s="156"/>
+      <c r="E138" s="157"/>
+      <c r="F138" s="157"/>
+      <c r="G138" s="157"/>
+      <c r="H138" s="157"/>
+      <c r="I138" s="157"/>
+      <c r="J138" s="157"/>
+      <c r="K138" s="157"/>
+      <c r="L138" s="157"/>
+      <c r="M138" s="157"/>
+      <c r="N138" s="157"/>
+      <c r="O138" s="157"/>
+      <c r="P138" s="157"/>
+      <c r="Q138" s="157"/>
+      <c r="R138" s="157"/>
+      <c r="S138" s="157"/>
+      <c r="T138" s="157"/>
+      <c r="U138" s="157"/>
+      <c r="V138" s="157"/>
+      <c r="W138" s="157"/>
     </row>
     <row r="139" spans="4:23">
       <c r="D139" s="117">
@@ -28024,28 +28024,28 @@
       </c>
     </row>
     <row r="160" spans="4:23">
-      <c r="D160" s="156" t="s">
+      <c r="D160" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="E160" s="156"/>
-      <c r="F160" s="156"/>
-      <c r="G160" s="156"/>
-      <c r="H160" s="156"/>
-      <c r="I160" s="156"/>
-      <c r="J160" s="156"/>
-      <c r="K160" s="156"/>
-      <c r="L160" s="156"/>
-      <c r="M160" s="156"/>
-      <c r="N160" s="156"/>
-      <c r="O160" s="156"/>
-      <c r="P160" s="156"/>
-      <c r="Q160" s="156"/>
-      <c r="R160" s="156"/>
-      <c r="S160" s="156"/>
-      <c r="T160" s="156"/>
-      <c r="U160" s="156"/>
-      <c r="V160" s="156"/>
-      <c r="W160" s="156"/>
+      <c r="E160" s="157"/>
+      <c r="F160" s="157"/>
+      <c r="G160" s="157"/>
+      <c r="H160" s="157"/>
+      <c r="I160" s="157"/>
+      <c r="J160" s="157"/>
+      <c r="K160" s="157"/>
+      <c r="L160" s="157"/>
+      <c r="M160" s="157"/>
+      <c r="N160" s="157"/>
+      <c r="O160" s="157"/>
+      <c r="P160" s="157"/>
+      <c r="Q160" s="157"/>
+      <c r="R160" s="157"/>
+      <c r="S160" s="157"/>
+      <c r="T160" s="157"/>
+      <c r="U160" s="157"/>
+      <c r="V160" s="157"/>
+      <c r="W160" s="157"/>
     </row>
     <row r="161" spans="4:23">
       <c r="D161">
@@ -29750,28 +29750,28 @@
       </c>
     </row>
     <row r="182" spans="3:23">
-      <c r="D182" s="156" t="s">
+      <c r="D182" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="E182" s="156"/>
-      <c r="F182" s="156"/>
-      <c r="G182" s="156"/>
-      <c r="H182" s="156"/>
-      <c r="I182" s="156"/>
-      <c r="J182" s="156"/>
-      <c r="K182" s="156"/>
-      <c r="L182" s="156"/>
-      <c r="M182" s="156"/>
-      <c r="N182" s="156"/>
-      <c r="O182" s="156"/>
-      <c r="P182" s="156"/>
-      <c r="Q182" s="156"/>
-      <c r="R182" s="156"/>
-      <c r="S182" s="156"/>
-      <c r="T182" s="156"/>
-      <c r="U182" s="156"/>
-      <c r="V182" s="156"/>
-      <c r="W182" s="156"/>
+      <c r="E182" s="157"/>
+      <c r="F182" s="157"/>
+      <c r="G182" s="157"/>
+      <c r="H182" s="157"/>
+      <c r="I182" s="157"/>
+      <c r="J182" s="157"/>
+      <c r="K182" s="157"/>
+      <c r="L182" s="157"/>
+      <c r="M182" s="157"/>
+      <c r="N182" s="157"/>
+      <c r="O182" s="157"/>
+      <c r="P182" s="157"/>
+      <c r="Q182" s="157"/>
+      <c r="R182" s="157"/>
+      <c r="S182" s="157"/>
+      <c r="T182" s="157"/>
+      <c r="U182" s="157"/>
+      <c r="V182" s="157"/>
+      <c r="W182" s="157"/>
     </row>
     <row r="183" spans="3:23">
       <c r="C183">
@@ -31474,28 +31474,28 @@
       </c>
     </row>
     <row r="204" spans="3:23">
-      <c r="D204" s="156" t="s">
+      <c r="D204" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="E204" s="156"/>
-      <c r="F204" s="156"/>
-      <c r="G204" s="156"/>
-      <c r="H204" s="156"/>
-      <c r="I204" s="156"/>
-      <c r="J204" s="156"/>
-      <c r="K204" s="156"/>
-      <c r="L204" s="156"/>
-      <c r="M204" s="156"/>
-      <c r="N204" s="156"/>
-      <c r="O204" s="156"/>
-      <c r="P204" s="156"/>
-      <c r="Q204" s="156"/>
-      <c r="R204" s="156"/>
-      <c r="S204" s="156"/>
-      <c r="T204" s="156"/>
-      <c r="U204" s="156"/>
-      <c r="V204" s="156"/>
-      <c r="W204" s="156"/>
+      <c r="E204" s="157"/>
+      <c r="F204" s="157"/>
+      <c r="G204" s="157"/>
+      <c r="H204" s="157"/>
+      <c r="I204" s="157"/>
+      <c r="J204" s="157"/>
+      <c r="K204" s="157"/>
+      <c r="L204" s="157"/>
+      <c r="M204" s="157"/>
+      <c r="N204" s="157"/>
+      <c r="O204" s="157"/>
+      <c r="P204" s="157"/>
+      <c r="Q204" s="157"/>
+      <c r="R204" s="157"/>
+      <c r="S204" s="157"/>
+      <c r="T204" s="157"/>
+      <c r="U204" s="157"/>
+      <c r="V204" s="157"/>
+      <c r="W204" s="157"/>
     </row>
     <row r="205" spans="3:23">
       <c r="D205">
@@ -33138,28 +33138,28 @@
       </c>
     </row>
     <row r="226" spans="4:23">
-      <c r="D226" s="156" t="s">
+      <c r="D226" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="E226" s="156"/>
-      <c r="F226" s="156"/>
-      <c r="G226" s="156"/>
-      <c r="H226" s="156"/>
-      <c r="I226" s="156"/>
-      <c r="J226" s="156"/>
-      <c r="K226" s="156"/>
-      <c r="L226" s="156"/>
-      <c r="M226" s="156"/>
-      <c r="N226" s="156"/>
-      <c r="O226" s="156"/>
-      <c r="P226" s="156"/>
-      <c r="Q226" s="156"/>
-      <c r="R226" s="156"/>
-      <c r="S226" s="156"/>
-      <c r="T226" s="156"/>
-      <c r="U226" s="156"/>
-      <c r="V226" s="156"/>
-      <c r="W226" s="156"/>
+      <c r="E226" s="157"/>
+      <c r="F226" s="157"/>
+      <c r="G226" s="157"/>
+      <c r="H226" s="157"/>
+      <c r="I226" s="157"/>
+      <c r="J226" s="157"/>
+      <c r="K226" s="157"/>
+      <c r="L226" s="157"/>
+      <c r="M226" s="157"/>
+      <c r="N226" s="157"/>
+      <c r="O226" s="157"/>
+      <c r="P226" s="157"/>
+      <c r="Q226" s="157"/>
+      <c r="R226" s="157"/>
+      <c r="S226" s="157"/>
+      <c r="T226" s="157"/>
+      <c r="U226" s="157"/>
+      <c r="V226" s="157"/>
+      <c r="W226" s="157"/>
     </row>
     <row r="227" spans="4:23">
       <c r="D227">
@@ -34803,16 +34803,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D23:X23"/>
+    <mergeCell ref="D46:W46"/>
+    <mergeCell ref="D68:W68"/>
+    <mergeCell ref="D90:W90"/>
+    <mergeCell ref="D114:W114"/>
     <mergeCell ref="D138:W138"/>
     <mergeCell ref="D160:W160"/>
     <mergeCell ref="D182:W182"/>
     <mergeCell ref="D204:W204"/>
     <mergeCell ref="D226:W226"/>
-    <mergeCell ref="D23:X23"/>
-    <mergeCell ref="D46:W46"/>
-    <mergeCell ref="D68:W68"/>
-    <mergeCell ref="D90:W90"/>
-    <mergeCell ref="D114:W114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36208,28 +36208,28 @@
       </c>
     </row>
     <row r="23" spans="4:23">
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="155"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
     </row>
     <row r="24" spans="4:23">
       <c r="D24" s="142">
@@ -37875,28 +37875,28 @@
       <c r="D44" s="142"/>
     </row>
     <row r="45" spans="4:23">
-      <c r="D45" s="155" t="s">
+      <c r="D45" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
-      <c r="S45" s="155"/>
-      <c r="T45" s="155"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="155"/>
-      <c r="W45" s="155"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="156"/>
+      <c r="V45" s="156"/>
+      <c r="W45" s="156"/>
     </row>
     <row r="46" spans="4:23">
       <c r="D46" s="142">
@@ -39539,28 +39539,28 @@
       </c>
     </row>
     <row r="67" spans="3:25">
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="155"/>
-      <c r="P67" s="155"/>
-      <c r="Q67" s="155"/>
-      <c r="R67" s="155"/>
-      <c r="S67" s="155"/>
-      <c r="T67" s="155"/>
-      <c r="U67" s="155"/>
-      <c r="V67" s="155"/>
-      <c r="W67" s="155"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="156"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="156"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="156"/>
+      <c r="R67" s="156"/>
+      <c r="S67" s="156"/>
+      <c r="T67" s="156"/>
+      <c r="U67" s="156"/>
+      <c r="V67" s="156"/>
+      <c r="W67" s="156"/>
     </row>
     <row r="68" spans="3:25">
       <c r="C68">
@@ -41296,27 +41296,27 @@
     </row>
     <row r="89" spans="3:24">
       <c r="D89" s="142"/>
-      <c r="E89" s="156" t="s">
+      <c r="E89" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="156"/>
-      <c r="N89" s="156"/>
-      <c r="O89" s="156"/>
-      <c r="P89" s="156"/>
-      <c r="Q89" s="156"/>
-      <c r="R89" s="156"/>
-      <c r="S89" s="156"/>
-      <c r="T89" s="156"/>
-      <c r="U89" s="156"/>
-      <c r="V89" s="156"/>
-      <c r="W89" s="156"/>
+      <c r="F89" s="157"/>
+      <c r="G89" s="157"/>
+      <c r="H89" s="157"/>
+      <c r="I89" s="157"/>
+      <c r="J89" s="157"/>
+      <c r="K89" s="157"/>
+      <c r="L89" s="157"/>
+      <c r="M89" s="157"/>
+      <c r="N89" s="157"/>
+      <c r="O89" s="157"/>
+      <c r="P89" s="157"/>
+      <c r="Q89" s="157"/>
+      <c r="R89" s="157"/>
+      <c r="S89" s="157"/>
+      <c r="T89" s="157"/>
+      <c r="U89" s="157"/>
+      <c r="V89" s="157"/>
+      <c r="W89" s="157"/>
     </row>
     <row r="90" spans="3:24">
       <c r="D90" s="142">
@@ -42959,28 +42959,28 @@
       </c>
     </row>
     <row r="111" spans="4:23">
-      <c r="D111" s="156" t="s">
+      <c r="D111" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="156"/>
-      <c r="F111" s="156"/>
-      <c r="G111" s="156"/>
-      <c r="H111" s="156"/>
-      <c r="I111" s="156"/>
-      <c r="J111" s="156"/>
-      <c r="K111" s="156"/>
-      <c r="L111" s="156"/>
-      <c r="M111" s="156"/>
-      <c r="N111" s="156"/>
-      <c r="O111" s="156"/>
-      <c r="P111" s="156"/>
-      <c r="Q111" s="156"/>
-      <c r="R111" s="156"/>
-      <c r="S111" s="156"/>
-      <c r="T111" s="156"/>
-      <c r="U111" s="156"/>
-      <c r="V111" s="156"/>
-      <c r="W111" s="156"/>
+      <c r="E111" s="157"/>
+      <c r="F111" s="157"/>
+      <c r="G111" s="157"/>
+      <c r="H111" s="157"/>
+      <c r="I111" s="157"/>
+      <c r="J111" s="157"/>
+      <c r="K111" s="157"/>
+      <c r="L111" s="157"/>
+      <c r="M111" s="157"/>
+      <c r="N111" s="157"/>
+      <c r="O111" s="157"/>
+      <c r="P111" s="157"/>
+      <c r="Q111" s="157"/>
+      <c r="R111" s="157"/>
+      <c r="S111" s="157"/>
+      <c r="T111" s="157"/>
+      <c r="U111" s="157"/>
+      <c r="V111" s="157"/>
+      <c r="W111" s="157"/>
     </row>
     <row r="112" spans="4:23">
       <c r="D112" s="142">
@@ -44623,28 +44623,28 @@
       </c>
     </row>
     <row r="133" spans="4:23">
-      <c r="D133" s="156" t="s">
+      <c r="D133" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="E133" s="156"/>
-      <c r="F133" s="156"/>
-      <c r="G133" s="156"/>
-      <c r="H133" s="156"/>
-      <c r="I133" s="156"/>
-      <c r="J133" s="156"/>
-      <c r="K133" s="156"/>
-      <c r="L133" s="156"/>
-      <c r="M133" s="156"/>
-      <c r="N133" s="156"/>
-      <c r="O133" s="156"/>
-      <c r="P133" s="156"/>
-      <c r="Q133" s="156"/>
-      <c r="R133" s="156"/>
-      <c r="S133" s="156"/>
-      <c r="T133" s="156"/>
-      <c r="U133" s="156"/>
-      <c r="V133" s="156"/>
-      <c r="W133" s="156"/>
+      <c r="E133" s="157"/>
+      <c r="F133" s="157"/>
+      <c r="G133" s="157"/>
+      <c r="H133" s="157"/>
+      <c r="I133" s="157"/>
+      <c r="J133" s="157"/>
+      <c r="K133" s="157"/>
+      <c r="L133" s="157"/>
+      <c r="M133" s="157"/>
+      <c r="N133" s="157"/>
+      <c r="O133" s="157"/>
+      <c r="P133" s="157"/>
+      <c r="Q133" s="157"/>
+      <c r="R133" s="157"/>
+      <c r="S133" s="157"/>
+      <c r="T133" s="157"/>
+      <c r="U133" s="157"/>
+      <c r="V133" s="157"/>
+      <c r="W133" s="157"/>
     </row>
     <row r="134" spans="4:23">
       <c r="D134" s="142">
@@ -46287,28 +46287,28 @@
       </c>
     </row>
     <row r="155" spans="4:23">
-      <c r="D155" s="156" t="s">
+      <c r="D155" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="E155" s="156"/>
-      <c r="F155" s="156"/>
-      <c r="G155" s="156"/>
-      <c r="H155" s="156"/>
-      <c r="I155" s="156"/>
-      <c r="J155" s="156"/>
-      <c r="K155" s="156"/>
-      <c r="L155" s="156"/>
-      <c r="M155" s="156"/>
-      <c r="N155" s="156"/>
-      <c r="O155" s="156"/>
-      <c r="P155" s="156"/>
-      <c r="Q155" s="156"/>
-      <c r="R155" s="156"/>
-      <c r="S155" s="156"/>
-      <c r="T155" s="156"/>
-      <c r="U155" s="156"/>
-      <c r="V155" s="156"/>
-      <c r="W155" s="156"/>
+      <c r="E155" s="157"/>
+      <c r="F155" s="157"/>
+      <c r="G155" s="157"/>
+      <c r="H155" s="157"/>
+      <c r="I155" s="157"/>
+      <c r="J155" s="157"/>
+      <c r="K155" s="157"/>
+      <c r="L155" s="157"/>
+      <c r="M155" s="157"/>
+      <c r="N155" s="157"/>
+      <c r="O155" s="157"/>
+      <c r="P155" s="157"/>
+      <c r="Q155" s="157"/>
+      <c r="R155" s="157"/>
+      <c r="S155" s="157"/>
+      <c r="T155" s="157"/>
+      <c r="U155" s="157"/>
+      <c r="V155" s="157"/>
+      <c r="W155" s="157"/>
     </row>
     <row r="156" spans="4:23">
       <c r="D156" s="142">
@@ -48013,28 +48013,28 @@
       </c>
     </row>
     <row r="177" spans="2:24">
-      <c r="D177" s="156" t="s">
+      <c r="D177" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="E177" s="156"/>
-      <c r="F177" s="156"/>
-      <c r="G177" s="156"/>
-      <c r="H177" s="156"/>
-      <c r="I177" s="156"/>
-      <c r="J177" s="156"/>
-      <c r="K177" s="156"/>
-      <c r="L177" s="156"/>
-      <c r="M177" s="156"/>
-      <c r="N177" s="156"/>
-      <c r="O177" s="156"/>
-      <c r="P177" s="156"/>
-      <c r="Q177" s="156"/>
-      <c r="R177" s="156"/>
-      <c r="S177" s="156"/>
-      <c r="T177" s="156"/>
-      <c r="U177" s="156"/>
-      <c r="V177" s="156"/>
-      <c r="W177" s="156"/>
+      <c r="E177" s="157"/>
+      <c r="F177" s="157"/>
+      <c r="G177" s="157"/>
+      <c r="H177" s="157"/>
+      <c r="I177" s="157"/>
+      <c r="J177" s="157"/>
+      <c r="K177" s="157"/>
+      <c r="L177" s="157"/>
+      <c r="M177" s="157"/>
+      <c r="N177" s="157"/>
+      <c r="O177" s="157"/>
+      <c r="P177" s="157"/>
+      <c r="Q177" s="157"/>
+      <c r="R177" s="157"/>
+      <c r="S177" s="157"/>
+      <c r="T177" s="157"/>
+      <c r="U177" s="157"/>
+      <c r="V177" s="157"/>
+      <c r="W177" s="157"/>
     </row>
     <row r="178" spans="2:24">
       <c r="B178">
@@ -49738,28 +49738,28 @@
       </c>
     </row>
     <row r="199" spans="2:24">
-      <c r="D199" s="156" t="s">
+      <c r="D199" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="E199" s="156"/>
-      <c r="F199" s="156"/>
-      <c r="G199" s="156"/>
-      <c r="H199" s="156"/>
-      <c r="I199" s="156"/>
-      <c r="J199" s="156"/>
-      <c r="K199" s="156"/>
-      <c r="L199" s="156"/>
-      <c r="M199" s="156"/>
-      <c r="N199" s="156"/>
-      <c r="O199" s="156"/>
-      <c r="P199" s="156"/>
-      <c r="Q199" s="156"/>
-      <c r="R199" s="156"/>
-      <c r="S199" s="156"/>
-      <c r="T199" s="156"/>
-      <c r="U199" s="156"/>
-      <c r="V199" s="156"/>
-      <c r="W199" s="156"/>
+      <c r="E199" s="157"/>
+      <c r="F199" s="157"/>
+      <c r="G199" s="157"/>
+      <c r="H199" s="157"/>
+      <c r="I199" s="157"/>
+      <c r="J199" s="157"/>
+      <c r="K199" s="157"/>
+      <c r="L199" s="157"/>
+      <c r="M199" s="157"/>
+      <c r="N199" s="157"/>
+      <c r="O199" s="157"/>
+      <c r="P199" s="157"/>
+      <c r="Q199" s="157"/>
+      <c r="R199" s="157"/>
+      <c r="S199" s="157"/>
+      <c r="T199" s="157"/>
+      <c r="U199" s="157"/>
+      <c r="V199" s="157"/>
+      <c r="W199" s="157"/>
     </row>
     <row r="200" spans="2:24">
       <c r="D200" s="142">
@@ -51422,28 +51422,28 @@
       <c r="X219" s="142"/>
     </row>
     <row r="221" spans="4:24">
-      <c r="D221" s="156" t="s">
+      <c r="D221" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="E221" s="156"/>
-      <c r="F221" s="156"/>
-      <c r="G221" s="156"/>
-      <c r="H221" s="156"/>
-      <c r="I221" s="156"/>
-      <c r="J221" s="156"/>
-      <c r="K221" s="156"/>
-      <c r="L221" s="156"/>
-      <c r="M221" s="156"/>
-      <c r="N221" s="156"/>
-      <c r="O221" s="156"/>
-      <c r="P221" s="156"/>
-      <c r="Q221" s="156"/>
-      <c r="R221" s="156"/>
-      <c r="S221" s="156"/>
-      <c r="T221" s="156"/>
-      <c r="U221" s="156"/>
-      <c r="V221" s="156"/>
-      <c r="W221" s="156"/>
+      <c r="E221" s="157"/>
+      <c r="F221" s="157"/>
+      <c r="G221" s="157"/>
+      <c r="H221" s="157"/>
+      <c r="I221" s="157"/>
+      <c r="J221" s="157"/>
+      <c r="K221" s="157"/>
+      <c r="L221" s="157"/>
+      <c r="M221" s="157"/>
+      <c r="N221" s="157"/>
+      <c r="O221" s="157"/>
+      <c r="P221" s="157"/>
+      <c r="Q221" s="157"/>
+      <c r="R221" s="157"/>
+      <c r="S221" s="157"/>
+      <c r="T221" s="157"/>
+      <c r="U221" s="157"/>
+      <c r="V221" s="157"/>
+      <c r="W221" s="157"/>
     </row>
     <row r="222" spans="4:24">
       <c r="D222" s="142">
